--- a/MatlabSimulation_Projects.xlsx
+++ b/MatlabSimulation_Projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1026691\Desktop\BCM Docs\ProjectDaywiseFiles\04Aug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CF3752-15E6-4C90-891E-62A54B70D8C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF8726C-9036-453D-A050-FABA95D9F2B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="977" xr2:uid="{81E2861C-8E07-4A7C-86BE-67EB5C446F01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="977" firstSheet="3" activeTab="9" xr2:uid="{81E2861C-8E07-4A7C-86BE-67EB5C446F01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sine Waves" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
   <si>
     <t>Generate Sine wave and tune its parameters.</t>
   </si>
@@ -387,6 +387,42 @@
   </si>
   <si>
     <t>Project 10 : DC motor position control.</t>
+  </si>
+  <si>
+    <t>DC Motor Working</t>
+  </si>
+  <si>
+    <t>Back emf</t>
+  </si>
+  <si>
+    <t>Deriving DC motor equations using Newtons Second Law of Motion.</t>
+  </si>
+  <si>
+    <t>Newtons second law of motion for rotary systems and Kirchoff's law</t>
+  </si>
+  <si>
+    <t>This tells summation of actual torque appled on rotor</t>
+  </si>
+  <si>
+    <t>Discribes all the voltage drop and supply in actual circuit.</t>
+  </si>
+  <si>
+    <t>In this scenario, the moment we applied step input,</t>
+  </si>
+  <si>
+    <t>our system becomes unstable and result you can see</t>
+  </si>
+  <si>
+    <t>in scope results.</t>
+  </si>
+  <si>
+    <t>To improve this, we are adding PID controller to get</t>
+  </si>
+  <si>
+    <t>proper output.</t>
+  </si>
+  <si>
+    <t>Updated Model : Just created subsystem and added input output instead of step and scope resp.</t>
   </si>
 </sst>
 </file>
@@ -434,10 +470,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,6 +629,539 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131161</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE214797-465F-4179-8460-66FC2F0E302A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1419226"/>
+          <a:ext cx="3788761" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485131</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF14CC4-88CE-43F4-BFB5-F92862D9FCC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867150" y="1390650"/>
+          <a:ext cx="5152381" cy="2561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>367775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C26BBD0-980C-47EB-903A-BDC2D2EBFFC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="1190626"/>
+          <a:ext cx="3006200" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CF66CD-E062-4663-B2F5-BA273DDD7B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058276" y="2847975"/>
+          <a:ext cx="2686050" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A3C9B1-BE64-426F-BC7A-6494A2066438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="3895724"/>
+          <a:ext cx="3028950" cy="928647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA5245E-784A-4311-8B8E-9A3B650D9A00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057651" y="4943475"/>
+          <a:ext cx="3038474" cy="1138391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>158885</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3C6CA5-1AE6-4839-82BA-C6084E0E81A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6286500"/>
+          <a:ext cx="4426085" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>132900</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>56865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35AD9233-00C7-4A68-8986-DF003530BA4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="6353175"/>
+          <a:ext cx="3600000" cy="2276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>97007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA94D3B-B608-4A71-8EEE-587E9D0656B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067676" y="6324601"/>
+          <a:ext cx="3276600" cy="2916406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>574464</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89AFE97-E8A1-4FB8-BEAD-2D4D64369A03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="10248900"/>
+          <a:ext cx="3612939" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D8E6B5-1836-464E-A2A5-5C3D741A5908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="10048875"/>
+          <a:ext cx="7200000" cy="1952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>63014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232F599C-F4F1-475A-82FB-6663F1C632CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11029951" y="9705976"/>
+          <a:ext cx="2666999" cy="2358538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1582,14 +2151,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>79376</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>79376</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>3836</xdr:rowOff>
+      <xdr:rowOff>3837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1604,20 +2173,24 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12747626" y="9731375"/>
-          <a:ext cx="6032500" cy="3797961"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:srcRect t="1741"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12938126" y="9688287"/>
+          <a:ext cx="6123214" cy="3841050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2868,7 +3441,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA5A82C-E7A1-4B6D-A695-7B5701C0A7D2}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2936,26 +3511,86 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFC3A2D-8F53-41A6-B060-26E767F0D859}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3285,7 +3920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EADD5D-0BB0-4867-98CC-EEFBD788B458}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3386,7 +4021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9478E74-87B7-452C-BB8A-0411B8B6D811}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3427,13 +4062,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -3455,7 +4090,8 @@
     <mergeCell ref="E7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3621,6 +4257,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>